--- a/medicine/Sexualité et sexologie/Drucilla_Cornell/Drucilla_Cornell.xlsx
+++ b/medicine/Sexualité et sexologie/Drucilla_Cornell/Drucilla_Cornell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drucilla Cornell, née le 16 juin 1950[1] et morte le 12 décembre 2022[2], est une universitaire américaine, professeure de sciences politiques, littérature comparée et Women's Studies. Apparentées à la méthode dite « de déconstruction », ses recherches sont principalement orientées vers les questions liées au genre, au féminisme, et à la sexualité. Après avoir enseigné à l'université de Pretoria, au Birkbeck College et à l'université de Londres, elle travaille à l'université Rutgers[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drucilla Cornell, née le 16 juin 1950 et morte le 12 décembre 2022, est une universitaire américaine, professeure de sciences politiques, littérature comparée et Women's Studies. Apparentées à la méthode dite « de déconstruction », ses recherches sont principalement orientées vers les questions liées au genre, au féminisme, et à la sexualité. Après avoir enseigné à l'université de Pretoria, au Birkbeck College et à l'université de Londres, elle travaille à l'université Rutgers.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Beyond Accommodation : Ethical Feminism, Deconstruction and the Law, 1991.
 (en) The Philosophy of the Limit, 1992.
@@ -552,7 +566,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Drucilla Cornell » (voir la liste des auteurs).</t>
         </is>
